--- a/xlsx/本田Insight_intext.xlsx
+++ b/xlsx/本田Insight_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>本田汽車</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_本田Insight</t>
+    <t>本田汽车</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_本田Insight</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BC%95%E6%93%8E</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%AE%B5%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>無段自動變速器</t>
+    <t>无段自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E8%B7%9D</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -113,25 +113,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/JC08%E3%83%A2%E3%83%BC%E3%83%89</t>
